--- a/BestBuy/src/test/resources/ExcelData/GiftCards_data.xlsx
+++ b/BestBuy/src/test/resources/ExcelData/GiftCards_data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43B94A41-A17C-4361-BBD4-E6173211A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00D933BA-92B1-4605-827F-9BDF75DDE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F4C28D0F-4DD4-4963-A27E-9784656ED8BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F4C28D0F-4DD4-4963-A27E-9784656ED8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A9:J14"/>
+  <oleSize ref="A1:L8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>John</t>
   </si>
@@ -36,25 +36,22 @@
     <t>SenderName</t>
   </si>
   <si>
-    <t xml:space="preserve"> ExpectedResult </t>
-  </si>
-  <si>
-    <t>J@hn</t>
-  </si>
-  <si>
-    <t>Error: Invalid characters used</t>
-  </si>
-  <si>
-    <t>Al!ce</t>
-  </si>
-  <si>
-    <t>Error: Recipient name is required</t>
-  </si>
-  <si>
-    <t>Error: Sender name is required</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>John Carter</t>
+  </si>
+  <si>
+    <t>Alice Brown</t>
+  </si>
+  <si>
+    <t>Mary Smith</t>
+  </si>
+  <si>
+    <t>Robert Lee</t>
+  </si>
+  <si>
+    <t>Steve Rogers</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67EFB53-681D-48B3-BD1D-0C612158CF07}">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,16 +453,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
@@ -476,10 +463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9036E27-94B3-482F-B8D0-F31B5761B429}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,55 +476,43 @@
     <col min="3" max="3" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F75AF708-7984-4EFB-A7EF-6137A36390D0}"/>
+    <hyperlink ref="A2" r:id="rId1" display="J@hn" xr:uid="{F75AF708-7984-4EFB-A7EF-6137A36390D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
